--- a/biology/Botanique/Trimezia/Trimezia.xlsx
+++ b/biology/Botanique/Trimezia/Trimezia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trimezia est un genre appartenant à la famille des Iridaceae. Il comprend une quarantaine d'espèces originaires des régions les plus chaudes de l'Amérique du Sud, l'Amérique centrale et des Antilles.
 Les plantes proviennent de rhizomes courts, ont un bouquet de feuilles en éventail comme les Iris et des fleurs éphémères similaires à celles des Cypella, avec trois grands tépales externes et trois internes petits. La plupart des espèces ont des fleurs jaunes avec des taches brunes ou violettes au centre. En général, les espèces de ce genre se développent pendant l'été et ont une période de repos en hiver. 
-Vers la fin du XXe siècle, les analyses phylogénétiques conduisent à distinguer parmi les Iridacées la tribu des Trimezieae, qui inclut les Trimezia et les genres connexes que sont Pseudotrimezia est Neomarica, souvent confondus. En 2018, les recherches sont toujours en cours pour déterminer les espèces et leur affectation dans ces différents genres[2]. 
+Vers la fin du XXe siècle, les analyses phylogénétiques conduisent à distinguer parmi les Iridacées la tribu des Trimezieae, qui inclut les Trimezia et les genres connexes que sont Pseudotrimezia est Neomarica, souvent confondus. En 2018, les recherches sont toujours en cours pour déterminer les espèces et leur affectation dans ces différents genres. 
 </t>
         </is>
       </c>
@@ -513,12 +525,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
-Trimezia martinicensis (Jacq.) Herbert
-Espèces
-Trimezia bahiensis Ravenna, Onira 8: 30 (2003).
+Trimezia martinicensis (Jacq.) Herbert</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Trimezia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trimezia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Trimezia bahiensis Ravenna, Onira 8: 30 (2003).
 Trimezia bauensis Ravenna, Onira 1: 9 (1988).
 Trimezia altivallis Ravenna, Onira 8: 32 (2003).
 Trimezia brevicaulis Ravenna, Bol. Soc. Argent. Bot. 10: 321 (1965).
